--- a/medicine/Psychotrope/Illy_(entreprise)/Illy_(entreprise).xlsx
+++ b/medicine/Psychotrope/Illy_(entreprise)/Illy_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Illy ou en italien Illycaffè est une entreprise Italienne du secteur alimentaire spécialisé dans l'importation, la torréfaction, et la vente de café. Fondée en 1933 à Trieste par Francesco Illy cette compagnie s'est développée dans le monde entier dans la deuxième partie du XXe siècle pour devenir l'une des plus importantes du secteur[1].
+Illy ou en italien Illycaffè est une entreprise Italienne du secteur alimentaire spécialisé dans l'importation, la torréfaction, et la vente de café. Fondée en 1933 à Trieste par Francesco Illy cette compagnie s'est développée dans le monde entier dans la deuxième partie du XXe siècle pour devenir l'une des plus importantes du secteur.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée par Francesco Illy (Timişoara, 1892 – Trieste, 1956)[2], un émigré hongrois venu à Trieste durant la Première Guerre mondiale, puis reprise par son fils Ernesto Illy qui la développa à l'international, Illy s'est spécialisée dans la production et la vente de café de haute qualité 100 % arabica. Tout d'abord importateur de cacao et de café, Francesco Illy s'est concentré exclusivement sur le second et développa en 1935 le premier percolateur utilisant la vapeur en place de l'air comprimé pour faire le café de type expresso. Cette machine, nommée Illetta, est le précurseur des machines express[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée par Francesco Illy (Timişoara, 1892 – Trieste, 1956), un émigré hongrois venu à Trieste durant la Première Guerre mondiale, puis reprise par son fils Ernesto Illy qui la développa à l'international, Illy s'est spécialisée dans la production et la vente de café de haute qualité 100 % arabica. Tout d'abord importateur de cacao et de café, Francesco Illy s'est concentré exclusivement sur le second et développa en 1935 le premier percolateur utilisant la vapeur en place de l'air comprimé pour faire le café de type expresso. Cette machine, nommée Illetta, est le précurseur des machines express.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Illy est devenue une holding, le groupe Illy SpA propriété de la famille, qui comprend les sociétés :
 Domori, producteur de chocolats (depuis juillet 2006)
